--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H2">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26694538163215</v>
+        <v>205.313027</v>
       </c>
       <c r="N2">
-        <v>1.26694538163215</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q2">
-        <v>18.71298890507773</v>
+        <v>5138.317661596899</v>
       </c>
       <c r="R2">
-        <v>18.71298890507773</v>
+        <v>46244.8589543721</v>
       </c>
       <c r="S2">
-        <v>0.0001982784155460328</v>
+        <v>0.02519092100710594</v>
       </c>
       <c r="T2">
-        <v>0.0001982784155460328</v>
+        <v>0.02519092100710594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H3">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113772122052608</v>
+        <v>0.186821</v>
       </c>
       <c r="N3">
-        <v>0.113772122052608</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O3">
-        <v>0.0004802731884750883</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P3">
-        <v>0.0004802731884750883</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q3">
-        <v>1.680432707315989</v>
+        <v>4.675522337202666</v>
       </c>
       <c r="R3">
-        <v>1.680432707315989</v>
+        <v>42.07970103482399</v>
       </c>
       <c r="S3">
-        <v>1.780546850791608E-05</v>
+        <v>2.292203822735777E-05</v>
       </c>
       <c r="T3">
-        <v>1.780546850791608E-05</v>
+        <v>2.292203822735777E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H4">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I4">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J4">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>235.509712324066</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N4">
-        <v>235.509712324066</v>
+        <v>798.529678</v>
       </c>
       <c r="O4">
-        <v>0.9941714931046868</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P4">
-        <v>0.9941714931046868</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q4">
-        <v>3478.516672976726</v>
+        <v>6661.534028844459</v>
       </c>
       <c r="R4">
-        <v>3478.516672976726</v>
+        <v>59953.80625960014</v>
       </c>
       <c r="S4">
-        <v>0.03685754199218972</v>
+        <v>0.03265858371524202</v>
       </c>
       <c r="T4">
-        <v>0.03685754199218972</v>
+        <v>0.03265858371524202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>137.130047720378</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H5">
-        <v>137.130047720378</v>
+        <v>75.080248</v>
       </c>
       <c r="I5">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J5">
-        <v>0.3442012338240648</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.26694538163215</v>
+        <v>0.044676</v>
       </c>
       <c r="N5">
-        <v>1.26694538163215</v>
+        <v>0.134028</v>
       </c>
       <c r="O5">
-        <v>0.005348233706838133</v>
+        <v>9.470850801135487E-05</v>
       </c>
       <c r="P5">
-        <v>0.005348233706838133</v>
+        <v>9.470850801135488E-05</v>
       </c>
       <c r="Q5">
-        <v>173.7362806423293</v>
+        <v>1.118095053216</v>
       </c>
       <c r="R5">
-        <v>173.7362806423293</v>
+        <v>10.062855478944</v>
       </c>
       <c r="S5">
-        <v>0.001840868640673137</v>
+        <v>5.481530341050716E-06</v>
       </c>
       <c r="T5">
-        <v>0.001840868640673137</v>
+        <v>5.481530341050716E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H6">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J6">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113772122052608</v>
+        <v>205.313027</v>
       </c>
       <c r="N6">
-        <v>0.113772122052608</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O6">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P6">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q6">
-        <v>15.60157652632281</v>
+        <v>28525.70585856975</v>
       </c>
       <c r="R6">
-        <v>15.60157652632281</v>
+        <v>256731.3527271277</v>
       </c>
       <c r="S6">
-        <v>0.000165310624045743</v>
+        <v>0.1398490420951991</v>
       </c>
       <c r="T6">
-        <v>0.000165310624045743</v>
+        <v>0.139849042095199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H7">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J7">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>235.509712324066</v>
+        <v>0.186821</v>
       </c>
       <c r="N7">
-        <v>235.509712324066</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O7">
-        <v>0.9941714931046868</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P7">
-        <v>0.9941714931046868</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q7">
-        <v>32295.45808961166</v>
+        <v>25.95646741014567</v>
       </c>
       <c r="R7">
-        <v>32295.45808961166</v>
+        <v>233.608206691311</v>
       </c>
       <c r="S7">
-        <v>0.3421950545593459</v>
+        <v>0.0001272531912612987</v>
       </c>
       <c r="T7">
-        <v>0.3421950545593459</v>
+        <v>0.0001272531912612987</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.09402437419971</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H8">
-        <v>81.09402437419971</v>
+        <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J8">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26694538163215</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N8">
-        <v>1.26694538163215</v>
+        <v>798.529678</v>
       </c>
       <c r="O8">
-        <v>0.005348233706838133</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P8">
-        <v>0.005348233706838133</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q8">
-        <v>102.7416996588573</v>
+        <v>36981.94093640635</v>
       </c>
       <c r="R8">
-        <v>102.7416996588573</v>
+        <v>332837.4684276571</v>
       </c>
       <c r="S8">
-        <v>0.001088626810083602</v>
+        <v>0.1813062590079225</v>
       </c>
       <c r="T8">
-        <v>0.001088626810083602</v>
+        <v>0.1813062590079224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.09402437419971</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H9">
-        <v>81.09402437419971</v>
+        <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J9">
-        <v>0.203548848041496</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.113772122052608</v>
+        <v>0.044676</v>
       </c>
       <c r="N9">
-        <v>0.113772122052608</v>
+        <v>0.134028</v>
       </c>
       <c r="O9">
-        <v>0.0004802731884750883</v>
+        <v>9.470850801135487E-05</v>
       </c>
       <c r="P9">
-        <v>0.0004802731884750883</v>
+        <v>9.470850801135488E-05</v>
       </c>
       <c r="Q9">
-        <v>9.226239238838618</v>
+        <v>6.207177662124001</v>
       </c>
       <c r="R9">
-        <v>9.226239238838618</v>
+        <v>55.86459895911601</v>
       </c>
       <c r="S9">
-        <v>9.775905425932053E-05</v>
+        <v>3.043107344886164E-05</v>
       </c>
       <c r="T9">
-        <v>9.775905425932053E-05</v>
+        <v>3.043107344886164E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.09402437419971</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H10">
-        <v>81.09402437419971</v>
+        <v>294.884064</v>
       </c>
       <c r="I10">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J10">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>235.509712324066</v>
+        <v>205.313027</v>
       </c>
       <c r="N10">
-        <v>235.509712324066</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O10">
-        <v>0.9941714931046868</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P10">
-        <v>0.9941714931046868</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q10">
-        <v>19098.43035156857</v>
+        <v>20181.17993130058</v>
       </c>
       <c r="R10">
-        <v>19098.43035156857</v>
+        <v>181630.6193817052</v>
       </c>
       <c r="S10">
-        <v>0.2023624621771531</v>
+        <v>0.09893948622117464</v>
       </c>
       <c r="T10">
-        <v>0.2023624621771531</v>
+        <v>0.09893948622117461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>165.406567946345</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H11">
-        <v>165.406567946345</v>
+        <v>294.884064</v>
       </c>
       <c r="I11">
-        <v>0.4151762922581955</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J11">
-        <v>0.4151762922581955</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.26694538163215</v>
+        <v>0.186821</v>
       </c>
       <c r="N11">
-        <v>1.26694538163215</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O11">
-        <v>0.005348233706838133</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P11">
-        <v>0.005348233706838133</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q11">
-        <v>209.5610873512462</v>
+        <v>18.363511906848</v>
       </c>
       <c r="R11">
-        <v>209.5610873512462</v>
+        <v>165.271607161632</v>
       </c>
       <c r="S11">
-        <v>0.002220459840535361</v>
+        <v>9.002825600211945E-05</v>
       </c>
       <c r="T11">
-        <v>0.002220459840535361</v>
+        <v>9.002825600211942E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>165.406567946345</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H12">
-        <v>165.406567946345</v>
+        <v>294.884064</v>
       </c>
       <c r="I12">
-        <v>0.4151762922581955</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J12">
-        <v>0.4151762922581955</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113772122052608</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N12">
-        <v>0.113772122052608</v>
+        <v>798.529678</v>
       </c>
       <c r="O12">
-        <v>0.0004802731884750883</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P12">
-        <v>0.0004802731884750883</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q12">
-        <v>18.81865623669456</v>
+        <v>26163.74185258349</v>
       </c>
       <c r="R12">
-        <v>18.81865623669456</v>
+        <v>235473.6766732514</v>
       </c>
       <c r="S12">
-        <v>0.0001993980416621087</v>
+        <v>0.1282693670702152</v>
       </c>
       <c r="T12">
-        <v>0.0001993980416621087</v>
+        <v>0.1282693670702151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>98.29468800000001</v>
+      </c>
+      <c r="H13">
+        <v>294.884064</v>
+      </c>
+      <c r="I13">
+        <v>0.2273204107243322</v>
+      </c>
+      <c r="J13">
+        <v>0.2273204107243321</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.044676</v>
+      </c>
+      <c r="N13">
+        <v>0.134028</v>
+      </c>
+      <c r="O13">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="P13">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="Q13">
+        <v>4.391413481088001</v>
+      </c>
+      <c r="R13">
+        <v>39.52272132979201</v>
+      </c>
+      <c r="S13">
+        <v>2.152917694022989E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.152917694022989E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H14">
+        <v>510.440507</v>
+      </c>
+      <c r="I14">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J14">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>205.313027</v>
+      </c>
+      <c r="N14">
+        <v>615.9390810000001</v>
+      </c>
+      <c r="O14">
+        <v>0.435242422384838</v>
+      </c>
+      <c r="P14">
+        <v>0.435242422384838</v>
+      </c>
+      <c r="Q14">
+        <v>34933.3618651949</v>
+      </c>
+      <c r="R14">
+        <v>314400.2567867541</v>
+      </c>
+      <c r="S14">
+        <v>0.1712629730613584</v>
+      </c>
+      <c r="T14">
+        <v>0.1712629730613584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H15">
+        <v>510.440507</v>
+      </c>
+      <c r="I15">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J15">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.186821</v>
+      </c>
+      <c r="N15">
+        <v>0.5604629999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="P15">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="Q15">
+        <v>31.78700198608233</v>
+      </c>
+      <c r="R15">
+        <v>286.083017874741</v>
+      </c>
+      <c r="S15">
+        <v>0.0001558377486212603</v>
+      </c>
+      <c r="T15">
+        <v>0.0001558377486212603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>165.406567946345</v>
-      </c>
-      <c r="H13">
-        <v>165.406567946345</v>
-      </c>
-      <c r="I13">
-        <v>0.4151762922581955</v>
-      </c>
-      <c r="J13">
-        <v>0.4151762922581955</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>235.509712324066</v>
-      </c>
-      <c r="N13">
-        <v>235.509712324066</v>
-      </c>
-      <c r="O13">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="P13">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="Q13">
-        <v>38954.85323355479</v>
-      </c>
-      <c r="R13">
-        <v>38954.85323355479</v>
-      </c>
-      <c r="S13">
-        <v>0.4127564343759981</v>
-      </c>
-      <c r="T13">
-        <v>0.4127564343759981</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H16">
+        <v>510.440507</v>
+      </c>
+      <c r="I16">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J16">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>266.1765593333333</v>
+      </c>
+      <c r="N16">
+        <v>798.529678</v>
+      </c>
+      <c r="O16">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="P16">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="Q16">
+        <v>45289.09929920741</v>
+      </c>
+      <c r="R16">
+        <v>407601.8936928667</v>
+      </c>
+      <c r="S16">
+        <v>0.222032618079659</v>
+      </c>
+      <c r="T16">
+        <v>0.222032618079659</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>170.1468356666666</v>
+      </c>
+      <c r="H17">
+        <v>510.440507</v>
+      </c>
+      <c r="I17">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="J17">
+        <v>0.3934886956169198</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.044676</v>
+      </c>
+      <c r="N17">
+        <v>0.134028</v>
+      </c>
+      <c r="O17">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="P17">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="Q17">
+        <v>7.601480030243999</v>
+      </c>
+      <c r="R17">
+        <v>68.413320272196</v>
+      </c>
+      <c r="S17">
+        <v>3.726672728121263E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.726672728121263E-05</v>
       </c>
     </row>
   </sheetData>
